--- a/blanco-meta/telegrams/MessageItem.xlsx
+++ b/blanco-meta/telegrams/MessageItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/cacco/oplux/oplux-meta/meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0506ED5-4C53-544E-9711-8FD6D4225609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4364A7B4-255F-E949-9F3F-0C95FDAB0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="3100" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3100" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>クラス名</t>
   </si>
@@ -115,6 +115,9 @@
   <si>
     <t>バリューオブジェクト定義(php)・一覧</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>code</t>
@@ -208,6 +211,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>エラーコード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>バリューオブジェクト定義書 設定シート</t>
     <rPh sb="14" eb="16">
       <t>セッテイ</t>
@@ -344,10 +351,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -357,6 +360,10 @@
   </si>
   <si>
     <t>デフォルト(Kt)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -425,70 +432,32 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アノテーション(Kt)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>@Introspected</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>io.micronaut.core.annotation.Introspected</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>APIが返す通知メッセージを定義します</t>
+    <t>MessageItem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>APIが返すメッセージ（エラー他）を定義します</t>
     <rPh sb="4" eb="5">
       <t>カエ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ツウチ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ホカ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>messageNumber</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メッセージコード（主にエラー時に使用）</t>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">オモニ </t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メッセージナンバー（主に画面API用に使用）</t>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">オモニ </t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ガメｎ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ヨウニ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シヨウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MessageItem</t>
-    <phoneticPr fontId="3"/>
+    <t>%%</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1443,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1628,11 +1597,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2092,10 +2066,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2118,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2167,7 +2141,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2184,11 +2158,11 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="9"/>
@@ -2209,7 +2183,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="9"/>
@@ -2226,7 +2200,7 @@
     </row>
     <row r="9" spans="1:19" s="32" customFormat="1">
       <c r="A9" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="91"/>
       <c r="C9" s="88"/>
@@ -2234,36 +2208,36 @@
       <c r="E9" s="9"/>
       <c r="F9" s="84"/>
       <c r="G9" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="32" customFormat="1">
-      <c r="A10" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="106"/>
+      <c r="A10" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="107"/>
       <c r="C10" s="88" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
       <c r="F10" s="90"/>
       <c r="G10" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="32" customFormat="1">
       <c r="A11" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="91"/>
       <c r="C11" s="88"/>
@@ -2272,20 +2246,30 @@
       <c r="F11" s="93"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:19" s="32" customFormat="1">
-      <c r="A12" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="83"/>
+      <c r="J12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -2295,6 +2279,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="83"/>
       <c r="J13" s="75"/>
+      <c r="K13"/>
       <c r="L13" s="76"/>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
@@ -2304,35 +2289,36 @@
       <c r="R13" s="76"/>
       <c r="S13" s="76"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="83"/>
-      <c r="J14" s="75"/>
+    <row r="14" spans="1:19" s="32" customFormat="1">
+      <c r="A14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="52"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15" spans="1:19" s="32" customFormat="1">
       <c r="A15" s="50" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B15" s="69"/>
-      <c r="C15" s="52"/>
-      <c r="D15"/>
+      <c r="C15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2347,15 +2333,11 @@
     </row>
     <row r="16" spans="1:19" s="32" customFormat="1">
       <c r="A16" s="50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="69"/>
-      <c r="C16" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
+      <c r="C16" s="52"/>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2370,10 +2352,12 @@
     </row>
     <row r="17" spans="1:19" s="32" customFormat="1">
       <c r="A17" s="50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="69"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -2389,31 +2373,35 @@
     </row>
     <row r="18" spans="1:19" s="32" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="52" t="s">
         <v>39</v>
       </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
+      <c r="J18" s="77"/>
       <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
     </row>
     <row r="19" spans="1:19" s="32" customFormat="1">
       <c r="A19" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -2421,7 +2409,6 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" s="77"/>
-      <c r="K19"/>
       <c r="L19" s="77"/>
       <c r="M19" s="75"/>
       <c r="N19" s="75"/>
@@ -2433,12 +2420,10 @@
     </row>
     <row r="20" spans="1:19" s="32" customFormat="1">
       <c r="A20" s="50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="52"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -2456,83 +2441,83 @@
       <c r="S20" s="75"/>
     </row>
     <row r="21" spans="1:19" s="32" customFormat="1">
-      <c r="A21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="A21" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" s="77"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="77"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="75"/>
       <c r="S21" s="75"/>
     </row>
-    <row r="22" spans="1:19" s="32" customFormat="1">
-      <c r="A22" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22"/>
+    <row r="22" spans="1:19">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" s="77"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="76"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="1:19" s="32" customFormat="1">
+      <c r="A23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="J23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
     </row>
     <row r="24" spans="1:19" s="32" customFormat="1">
-      <c r="A24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="J24" s="75"/>
+      <c r="A24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="79"/>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
       <c r="N24" s="75"/>
@@ -2543,13 +2528,13 @@
       <c r="S24" s="75"/>
     </row>
     <row r="25" spans="1:19" s="32" customFormat="1">
-      <c r="A25" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="A25" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="36"/>
       <c r="G25" s="94"/>
       <c r="H25" s="94"/>
@@ -2566,7 +2551,7 @@
     </row>
     <row r="26" spans="1:19" s="32" customFormat="1">
       <c r="A26" s="53" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="55"/>
@@ -2577,6 +2562,7 @@
       <c r="H26" s="94"/>
       <c r="I26" s="94"/>
       <c r="J26" s="79"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="75"/>
       <c r="M26" s="75"/>
       <c r="N26" s="75"/>
@@ -2587,20 +2573,18 @@
       <c r="S26" s="75"/>
     </row>
     <row r="27" spans="1:19" s="32" customFormat="1">
-      <c r="A27" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="75"/>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="77"/>
       <c r="M27" s="75"/>
       <c r="N27" s="75"/>
       <c r="O27" s="75"/>
@@ -2610,18 +2594,17 @@
       <c r="S27" s="75"/>
     </row>
     <row r="28" spans="1:19" s="32" customFormat="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="77"/>
+      <c r="A28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="J28" s="75"/>
       <c r="K28" s="95"/>
-      <c r="L28" s="77"/>
+      <c r="L28" s="75"/>
       <c r="M28" s="75"/>
       <c r="N28" s="75"/>
       <c r="O28" s="75"/>
@@ -2631,61 +2614,57 @@
       <c r="S28" s="75"/>
     </row>
     <row r="29" spans="1:19" s="32" customFormat="1">
-      <c r="A29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="J29" s="75"/>
+      <c r="A29" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="79"/>
       <c r="K29" s="95"/>
-      <c r="L29" s="75"/>
+      <c r="L29" s="79"/>
       <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
       <c r="P29" s="75"/>
       <c r="Q29" s="75"/>
       <c r="R29" s="75"/>
       <c r="S29" s="75"/>
     </row>
     <row r="30" spans="1:19" s="32" customFormat="1">
-      <c r="A30" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="81"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
       <c r="P30" s="75"/>
       <c r="Q30" s="75"/>
       <c r="R30" s="75"/>
       <c r="S30" s="75"/>
     </row>
     <row r="31" spans="1:19" s="32" customFormat="1">
-      <c r="A31" s="59">
-        <v>1</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="85"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="95"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
@@ -2700,16 +2679,17 @@
       <c r="S31" s="75"/>
     </row>
     <row r="32" spans="1:19" s="32" customFormat="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="86"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="95"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="81"/>
+      <c r="K32" s="94"/>
       <c r="L32" s="75"/>
       <c r="M32" s="77"/>
       <c r="N32" s="77"/>
@@ -2720,259 +2700,247 @@
       <c r="S32" s="75"/>
     </row>
     <row r="33" spans="1:21" s="32" customFormat="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-    </row>
-    <row r="34" spans="1:21" s="32" customFormat="1">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" s="95"/>
-      <c r="L34"/>
-      <c r="M34"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="3" t="s">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="95"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A36" s="108" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="12"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A35" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B35" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C35" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="111" t="s">
+      <c r="D35" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="109" t="s">
+      <c r="E35" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="119" t="s">
+      <c r="G35" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="114"/>
-      <c r="N36" s="113" t="s">
+      <c r="H35" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="38" t="s">
+      <c r="M35" s="115"/>
+      <c r="N35" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="107" t="s">
+      <c r="O35" s="115"/>
+      <c r="P35" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="R36" s="107"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="7"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="27"/>
+      <c r="A37" s="16">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="26"/>
       <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="16">
-        <v>1</v>
+        <f>A37+1</f>
+        <v>2</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
-      <c r="T38" s="26"/>
+      <c r="T38" s="20"/>
       <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="16">
-        <f>A38+1</f>
-        <v>2</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="73"/>
       <c r="H39" s="73"/>
-      <c r="I39" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="18" t="s">
-        <v>72</v>
-      </c>
+      <c r="I39" s="73"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
       <c r="T39" s="20"/>
       <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="16">
-        <v>3</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
-      <c r="I40" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="71" t="s">
-        <v>39</v>
-      </c>
+      <c r="I40" s="73"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="102"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
       <c r="P40" s="18"/>
-      <c r="Q40" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
       <c r="T40" s="20"/>
@@ -2984,17 +2952,17 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -3007,17 +2975,17 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -3031,11 +2999,11 @@
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="102"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
@@ -3054,11 +3022,11 @@
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="102"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -3077,11 +3045,11 @@
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="102"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -3100,11 +3068,11 @@
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="102"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -3117,125 +3085,102 @@
       <c r="U46" s="12"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="25"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="12"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="105"/>
     </row>
     <row r="49" spans="7:11">
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
       <c r="J49" s="75"/>
-      <c r="K49" s="103"/>
+      <c r="K49" s="105"/>
     </row>
     <row r="50" spans="7:11">
       <c r="G50" s="75"/>
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
       <c r="J50" s="75"/>
-      <c r="K50" s="103"/>
+      <c r="K50" s="105"/>
     </row>
     <row r="51" spans="7:11">
       <c r="G51" s="75"/>
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
       <c r="J51" s="75"/>
-      <c r="K51" s="103"/>
-    </row>
-    <row r="52" spans="7:11">
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="103"/>
+      <c r="K51" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q36:R37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K35:K36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L50:P50 F60 K63" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L49:P49 F59 K62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{0505A570-B6EC-204E-A131-12D452D821D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{0505A570-B6EC-204E-A131-12D452D821D5}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{335D978F-C8A9-5A46-B1C6-3CA1938C5557}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{335D978F-C8A9-5A46-B1C6-3CA1938C5557}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{F37E9BBA-0828-7A47-894D-CEEBF6D9B23D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{F37E9BBA-0828-7A47-894D-CEEBF6D9B23D}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J38:K48" xr:uid="{AF2A87C6-B9B6-7F46-A27A-581DA97035E2}">
-      <formula1>theOther</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J37:J47" xr:uid="{AF2A87C6-B9B6-7F46-A27A-581DA97035E2}">
+      <formula1>others</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{40B4C319-B08C-464C-B234-307EFE76C1B7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{40B4C319-B08C-464C-B234-307EFE76C1B7}">
       <formula1>accessScope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{9FD85228-057A-3348-AC90-652CE1C3A2C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{9FD85228-057A-3348-AC90-652CE1C3A2C0}">
       <formula1>isAbstract</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{B139B2C3-6DBF-4741-9D3D-49EFFABCC55E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{B139B2C3-6DBF-4741-9D3D-49EFFABCC55E}">
       <formula1>isFinal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{5F7DD7FF-EC46-1943-8FB1-FC1A07A46662}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{5F7DD7FF-EC46-1943-8FB1-FC1A07A46662}">
       <formula1>isData</formula1>
     </dataValidation>
   </dataValidations>
@@ -3278,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19">
       <c r="A1" s="43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3293,43 +3238,43 @@
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="44"/>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" s="68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="46"/>
       <c r="D4" s="98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="47"/>
       <c r="J4" s="47"/>
@@ -3339,24 +3284,24 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="99"/>
       <c r="F5" s="49"/>
       <c r="H5" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:18">
